--- a/biology/Microbiologie/Cedecea/Cedecea.xlsx
+++ b/biology/Microbiologie/Cedecea/Cedecea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cedecea est un genre de bacilles Gram négatifs (BGN) de la famille des Enterobacteriaceae. Son nom est un néologisme qui fait référence au CDC de la ville d'Atlanta, en Géorgie (USA), où ce genre bactérien a été étudié pour la première fois[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cedecea est un genre de bacilles Gram négatifs (BGN) de la famille des Enterobacteriaceae. Son nom est un néologisme qui fait référence au CDC de la ville d'Atlanta, en Géorgie (USA), où ce genre bactérien a été étudié pour la première fois.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été créé en 1981 pour recevoir deux espèces isolées de prélèvements cliniques[1].
-Jusqu'en 2016 il était rattaché par des critères phénotypiques à la famille des Enterobacteriaceae. Malgré la refonte de l'ordre des Enterobacterales par Adeolu et al. en 2016 à l'aide des techniques de phylogénétique moléculaire, Cedecea reste dans la famille des Enterobacteriaceae dont le périmètre redéfini compte néanmoins beaucoup moins de genres qu'auparavant[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été créé en 1981 pour recevoir deux espèces isolées de prélèvements cliniques.
+Jusqu'en 2016 il était rattaché par des critères phénotypiques à la famille des Enterobacteriaceae. Malgré la refonte de l'ordre des Enterobacterales par Adeolu et al. en 2016 à l'aide des techniques de phylogénétique moléculaire, Cedecea reste dans la famille des Enterobacteriaceae dont le périmètre redéfini compte néanmoins beaucoup moins de genres qu'auparavant.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la LPSN  (29 octobre 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (29 octobre 2022) :
 Cedecea davisae Grimont et al. 1981 – espèce type
 Cedecea lapagei Grimont et al. 1981
 Cedecea neteri Farmer et al. 1983</t>
